--- a/Uji.xlsx
+++ b/Uji.xlsx
@@ -190,8 +190,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -212,11 +212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,19 +227,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,8 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,7 +260,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,9 +303,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,18 +334,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,42 +355,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -389,181 +389,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +721,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -732,6 +743,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,32 +792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -785,172 +800,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,14 +972,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1112,7 +1106,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Jumlah Sel Normal" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="33" count="12">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="33" count="12">
         <n v="8"/>
         <n v="27"/>
         <n v="30"/>
@@ -1128,7 +1122,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Jumlah Sel Pupil" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="16" count="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="16" count="10">
         <n v="4"/>
         <n v="6"/>
         <n v="16"/>
@@ -1142,7 +1136,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Total Sel" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="46" count="15">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="46" count="15">
         <n v="12"/>
         <n v="33"/>
         <n v="34"/>
@@ -1161,7 +1155,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Sel Normal Ditemukan" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="32" count="8">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="32" count="8">
         <n v="8"/>
         <n v="27"/>
         <n v="30"/>
@@ -1173,7 +1167,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Sel Pupil Ditemukan" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="17" count="9">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="17" count="9">
         <n v="4"/>
         <n v="6"/>
         <n v="5"/>
@@ -1697,94 +1691,94 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <sheetData>
     <row r="3" spans="1:3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1797,8 +1791,8 @@
   <sheetPr/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1872,13 +1866,13 @@
       <c r="D4" s="3">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>8</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1904,13 +1898,13 @@
       <c r="D5" s="3">
         <v>33</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>27</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>6</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>33</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -1936,16 +1930,16 @@
       <c r="D6" s="3">
         <v>34</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>30</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>34</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="3">
@@ -1968,16 +1962,16 @@
       <c r="D7" s="3">
         <v>46</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>29</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>17</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>46</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="3">
@@ -2000,16 +1994,16 @@
       <c r="D8" s="3">
         <v>36</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>24</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>12</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>36</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="3">
@@ -2032,13 +2026,13 @@
       <c r="D9" s="3">
         <v>41</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>27</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>14</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>41</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -2064,16 +2058,16 @@
       <c r="D10" s="3">
         <v>36</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>23</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>13</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>36</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="3">
@@ -2096,16 +2090,16 @@
       <c r="D11" s="3">
         <v>46</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>29</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>17</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>46</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="3">
@@ -2128,16 +2122,16 @@
       <c r="D12" s="3">
         <v>39</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>32</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>7</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>39</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="3">
@@ -2160,16 +2154,16 @@
       <c r="D13" s="3">
         <v>24</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>22</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>4</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>26</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="3">
@@ -2192,16 +2186,16 @@
       <c r="D14" s="3">
         <v>37</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>28</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>9</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>37</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="3">
@@ -2224,16 +2218,16 @@
       <c r="D15" s="3">
         <v>31</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>22</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>9</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>31</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="3">
@@ -2256,16 +2250,16 @@
       <c r="D16" s="3">
         <v>28</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>21</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>7</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>28</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="3">
@@ -2288,16 +2282,16 @@
       <c r="D17" s="3">
         <v>42</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>30</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>12</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>42</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="3">
@@ -2320,13 +2314,13 @@
       <c r="D18" s="3">
         <v>23</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>21</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>2</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <v>23</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -2352,13 +2346,13 @@
       <c r="D19" s="3">
         <v>32</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>22</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <v>32</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -2384,13 +2378,13 @@
       <c r="D20" s="3">
         <v>31</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>27</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>4</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <v>31</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -2416,16 +2410,16 @@
       <c r="D21" s="3">
         <v>34</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>28</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>6</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>34</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="3">
@@ -2448,16 +2442,16 @@
       <c r="D22" s="3">
         <v>30</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>24</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>6</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>30</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="3">
@@ -2480,16 +2474,16 @@
       <c r="D23" s="3">
         <v>28</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>20</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>8</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>28</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="9" t="s">
         <v>12</v>
       </c>
       <c r="I23" s="3">
@@ -2504,7 +2498,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <v>0.35</v>
       </c>
     </row>
@@ -2544,7 +2538,7 @@
       <c r="H27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -2567,16 +2561,16 @@
       <c r="E28" s="3">
         <v>26</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="11">
         <v>6</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="11">
         <v>20</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <v>26</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="3">
@@ -2599,16 +2593,16 @@
       <c r="E29" s="3">
         <v>23</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <v>7</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="11">
         <v>16</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <v>23</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J29" s="3">
@@ -2631,16 +2625,16 @@
       <c r="E30" s="3">
         <v>45</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="11">
         <v>19</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="11">
         <v>26</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="11">
         <v>45</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J30" s="3">
@@ -2663,16 +2657,16 @@
       <c r="E31" s="3">
         <v>39</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="11">
         <v>6</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="11">
         <v>29</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <v>36</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J31" s="3">
@@ -2695,16 +2689,16 @@
       <c r="E32" s="3">
         <v>42</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="11">
         <v>6</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="11">
         <v>36</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <v>42</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="3">
@@ -2727,16 +2721,16 @@
       <c r="E33" s="3">
         <v>42</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="11">
         <v>11</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="11">
         <v>31</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="11">
         <v>42</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="3">
@@ -2759,16 +2753,16 @@
       <c r="E34" s="3">
         <v>51</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="11">
         <v>7</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="11">
         <v>44</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <v>51</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="3">
@@ -2791,16 +2785,16 @@
       <c r="E35" s="3">
         <v>49</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="11">
         <v>13</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="11">
         <v>36</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <v>49</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J35" s="3">
@@ -2823,16 +2817,16 @@
       <c r="E36" s="3">
         <v>43</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11">
         <v>6</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="11">
         <v>37</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <v>49</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J36" s="3">
@@ -2855,16 +2849,16 @@
       <c r="E37" s="3">
         <v>31</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="11">
         <v>5</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="11">
         <v>26</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <v>31</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J37" s="3">
@@ -2887,16 +2881,16 @@
       <c r="E38" s="3">
         <v>38</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="11">
         <v>10</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="11">
         <v>28</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="11">
         <v>38</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J38" s="3">
@@ -2919,16 +2913,16 @@
       <c r="E39" s="3">
         <v>44</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="11">
         <v>10</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="11">
         <v>34</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <v>44</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J39" s="3">
@@ -2951,16 +2945,16 @@
       <c r="E40" s="3">
         <v>36</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="11">
         <v>11</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="11">
         <v>25</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>36</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J40" s="3">
@@ -2983,16 +2977,16 @@
       <c r="E41" s="3">
         <v>39</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="11">
         <v>10</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="11">
         <v>29</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <v>39</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J41" s="3">
@@ -3015,16 +3009,16 @@
       <c r="E42" s="3">
         <v>26</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="11">
         <v>3</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="11">
         <v>23</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <v>26</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J42" s="3">
@@ -3047,16 +3041,16 @@
       <c r="E43" s="3">
         <v>31</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="11">
         <v>4</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="11">
         <v>27</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="11">
         <v>31</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J43" s="3">
@@ -3079,16 +3073,16 @@
       <c r="E44" s="3">
         <v>40</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="11">
         <v>8</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="11">
         <v>32</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="11">
         <v>40</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="3">
@@ -3111,16 +3105,16 @@
       <c r="E45" s="3">
         <v>28</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="11">
         <v>8</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="11">
         <v>20</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="11">
         <v>28</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J45" s="3">
@@ -3143,16 +3137,16 @@
       <c r="E46" s="3">
         <v>31</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="11">
         <v>10</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="11">
         <v>21</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="11">
         <v>31</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J46" s="3">
@@ -3175,16 +3169,16 @@
       <c r="E47" s="3">
         <v>24</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="11">
         <v>6</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="11">
         <v>18</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="11">
         <v>24</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J47" s="3">
@@ -3195,12 +3189,12 @@
       </c>
     </row>
     <row r="48" spans="6:9">
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="12">
+      <c r="I48" s="10">
         <v>0.5</v>
       </c>
     </row>
